--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="580" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -1068,8 +1068,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,7 +1120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1237,7 +1237,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1261,9 +1261,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1287,7 +1287,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1322,7 +1322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1340,7 +1340,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1365,7 +1365,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1381,20 +1381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="true"/>
-    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="1" max="1" width="19.24609375" customWidth="true"/>
+    <col min="2" max="2" width="9.64453125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
+    <row r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
         <v>333</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>345</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
+    <row r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
         <v>334</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
+    <row r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0" t="s">
         <v>335</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
+    <row r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0" t="s">
         <v>336</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
+    <row r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0" t="s">
         <v>337</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
+    <row r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0" t="s">
         <v>338</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1934.4929</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
+    <row r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0" t="s">
         <v>339</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>4.1162999999999998</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
+    <row r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="0" t="s">
         <v>340</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>19907.425999999999</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
+    <row r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="0" t="s">
         <v>341</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>8.0175000000000001</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
+    <row r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="0" t="s">
         <v>342</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>3.1015999999999999</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
+    <row r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="0" t="s">
         <v>343</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>7.3266</v>
       </c>
     </row>
-    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
+    <row r="12" x14ac:dyDescent="0.3">
       <c r="A12" s="0" t="s">
         <v>344</v>
       </c>

--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="879" uniqueCount="346">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -1068,8 +1068,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,7 +1120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1237,7 +1237,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1261,9 +1261,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1287,7 +1287,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1322,7 +1322,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="false">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1340,7 +1340,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill rotWithShape="true">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1365,7 +1365,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="5400000" scaled="false"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1381,20 +1381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.24609375" customWidth="true"/>
-    <col min="2" max="2" width="9.64453125" customWidth="true"/>
+    <col min="1" max="1" width="19.5546875" customWidth="true"/>
+    <col min="2" max="2" width="9.5546875" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="1" x14ac:dyDescent="0.3">
       <c r="A1" s="0" t="s">
         <v>333</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="2" x14ac:dyDescent="0.3">
       <c r="A2" s="0" t="s">
         <v>334</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="3" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="3" x14ac:dyDescent="0.3">
       <c r="A3" s="0" t="s">
         <v>335</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
       <c r="A4" s="0" t="s">
         <v>336</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="5" x14ac:dyDescent="0.3">
       <c r="A5" s="0" t="s">
         <v>337</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
       <c r="A6" s="0" t="s">
         <v>338</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>1934.4929</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
       <c r="A7" s="0" t="s">
         <v>339</v>
       </c>
@@ -1450,15 +1450,15 @@
         <v>4.1162999999999998</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="8" x14ac:dyDescent="0.3">
       <c r="A8" s="0" t="s">
         <v>340</v>
       </c>
       <c r="B8" s="0">
-        <v>19907.425999999999</v>
+        <v>13.271599999999999</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
       <c r="A9" s="0" t="s">
         <v>341</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>8.0175000000000001</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
       <c r="A10" s="0" t="s">
         <v>342</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>3.1015999999999999</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
       <c r="A11" s="0" t="s">
         <v>343</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>7.3266</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.3">
+    <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
       <c r="A12" s="0" t="s">
         <v>344</v>
       </c>

--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="879" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="892" uniqueCount="346">
   <si>
     <t>OriginalVariableNames</t>
   </si>

--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="892" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="905" uniqueCount="346">
   <si>
     <t>OriginalVariableNames</t>
   </si>

--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="905" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1022" uniqueCount="346">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -1415,7 +1415,7 @@
         <v>335</v>
       </c>
       <c r="B3" s="0">
-        <v>2.5</v>
+        <v>3.3332999999999999</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
@@ -1431,7 +1431,7 @@
         <v>337</v>
       </c>
       <c r="B5" s="0">
-        <v>30</v>
+        <v>37.5</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="6" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="0">
-        <v>1934.4929</v>
+        <v>1947.4021</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>340</v>
       </c>
       <c r="B8" s="0">
-        <v>13.271599999999999</v>
+        <v>10.6881</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
         <v>341</v>
       </c>
       <c r="B9" s="0">
-        <v>8.0175000000000001</v>
+        <v>8.8507999999999996</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>342</v>
       </c>
       <c r="B10" s="0">
-        <v>3.1015999999999999</v>
+        <v>3.081</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>343</v>
       </c>
       <c r="B11" s="0">
-        <v>7.3266</v>
+        <v>9.0975000000000001</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>344</v>
       </c>
       <c r="B12" s="0">
-        <v>10.608599999999999</v>
+        <v>11.1463</v>
       </c>
     </row>
   </sheetData>

--- a/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
+++ b/MATLAB/optimizerV2_recent_2024/optimizerV2_outputs.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1022" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1035" uniqueCount="346">
   <si>
     <t>OriginalVariableNames</t>
   </si>
@@ -1415,7 +1415,7 @@
         <v>335</v>
       </c>
       <c r="B3" s="0">
-        <v>3.3332999999999999</v>
+        <v>2.5</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="4" x14ac:dyDescent="0.3">
@@ -1439,7 +1439,7 @@
         <v>338</v>
       </c>
       <c r="B6" s="0">
-        <v>1947.4021</v>
+        <v>1939.8096</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="7" x14ac:dyDescent="0.3">
@@ -1455,7 +1455,7 @@
         <v>340</v>
       </c>
       <c r="B8" s="0">
-        <v>10.6881</v>
+        <v>10.6465</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="9" x14ac:dyDescent="0.3">
@@ -1463,7 +1463,7 @@
         <v>341</v>
       </c>
       <c r="B9" s="0">
-        <v>8.8507999999999996</v>
+        <v>8.0175000000000001</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="10" x14ac:dyDescent="0.3">
@@ -1471,7 +1471,7 @@
         <v>342</v>
       </c>
       <c r="B10" s="0">
-        <v>3.081</v>
+        <v>3.0931000000000002</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="11" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>343</v>
       </c>
       <c r="B11" s="0">
-        <v>9.0975000000000001</v>
+        <v>9.1331000000000007</v>
       </c>
     </row>
     <row xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" r="12" x14ac:dyDescent="0.3">
@@ -1487,7 +1487,7 @@
         <v>344</v>
       </c>
       <c r="B12" s="0">
-        <v>11.1463</v>
+        <v>10.608599999999999</v>
       </c>
     </row>
   </sheetData>
